--- a/Hardware/allegro/BOM/ST-LINK-V2_PRO_BOM.xlsx
+++ b/Hardware/allegro/BOM/ST-LINK-V2_PRO_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ST-LINK-V2\Hardware\allegro\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D8C71A30-F086-4477-A713-784CE0A59BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{45D1F4BA-C4A9-4CD3-A8B9-9E4D580BD4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="45" windowWidth="25710" windowHeight="18270"/>
   </bookViews>
@@ -145,10 +145,10 @@
     <t>J7</t>
   </si>
   <si>
-    <t>8x2.54P</t>
-  </si>
-  <si>
-    <t>HEADER_RA_4X2_2P54</t>
+    <t>P2.54x4x2</t>
+  </si>
+  <si>
+    <t>HDRV8W64P254_4X2_1016X502H838</t>
   </si>
   <si>
     <t>J9,J12</t>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1280,7 @@
     <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
